--- a/stock_historical_data/1wk/HINDALCO.NS.xlsx
+++ b/stock_historical_data/1wk/HINDALCO.NS.xlsx
@@ -83573,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDALCO.NS.xlsx
+++ b/stock_historical_data/1wk/HINDALCO.NS.xlsx
@@ -79172,7 +79172,9 @@
       <c r="P1485" t="n">
         <v>0</v>
       </c>
-      <c r="Q1485" t="inlineStr"/>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDALCO.NS.xlsx
+++ b/stock_historical_data/1wk/HINDALCO.NS.xlsx
@@ -83685,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDALCO.NS.xlsx
+++ b/stock_historical_data/1wk/HINDALCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1486"/>
+  <dimension ref="A1:R1488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3942,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -5566,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -6014,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -6966,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="R116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -7638,7 +7638,7 @@
         <v>2</v>
       </c>
       <c r="R128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="R136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="R147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -9262,7 +9262,7 @@
         <v>2</v>
       </c>
       <c r="R157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -9430,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="R160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -9766,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="R166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -10214,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="R174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -10718,7 +10718,7 @@
         <v>2</v>
       </c>
       <c r="R183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -11502,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="R197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="R208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -12678,7 +12678,7 @@
         <v>2</v>
       </c>
       <c r="R218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -13126,7 +13126,7 @@
         <v>1</v>
       </c>
       <c r="R226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -13966,7 +13966,7 @@
         <v>2</v>
       </c>
       <c r="R241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -14470,7 +14470,7 @@
         <v>1</v>
       </c>
       <c r="R250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -14638,7 +14638,7 @@
         <v>2</v>
       </c>
       <c r="R253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -15142,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="R262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -15366,7 +15366,7 @@
         <v>2</v>
       </c>
       <c r="R266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -15870,7 +15870,7 @@
         <v>2</v>
       </c>
       <c r="R275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -16654,7 +16654,7 @@
         <v>2</v>
       </c>
       <c r="R289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="R307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -18278,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="R318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -18894,7 +18894,7 @@
         <v>2</v>
       </c>
       <c r="R329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -19566,7 +19566,7 @@
         <v>2</v>
       </c>
       <c r="R341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -19734,7 +19734,7 @@
         <v>1</v>
       </c>
       <c r="R344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -20182,7 +20182,7 @@
         <v>1</v>
       </c>
       <c r="R352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -20854,7 +20854,7 @@
         <v>1</v>
       </c>
       <c r="R364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -21974,7 +21974,7 @@
         <v>1</v>
       </c>
       <c r="R384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -23430,7 +23430,7 @@
         <v>1</v>
       </c>
       <c r="R410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -24550,7 +24550,7 @@
         <v>1</v>
       </c>
       <c r="R430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -25054,7 +25054,7 @@
         <v>2</v>
       </c>
       <c r="R439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440">
@@ -25110,7 +25110,7 @@
         <v>1</v>
       </c>
       <c r="R440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -25838,7 +25838,7 @@
         <v>2</v>
       </c>
       <c r="R453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -27238,7 +27238,7 @@
         <v>2</v>
       </c>
       <c r="R478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479">
@@ -27350,7 +27350,7 @@
         <v>1</v>
       </c>
       <c r="R480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -27798,7 +27798,7 @@
         <v>2</v>
       </c>
       <c r="R488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -28414,7 +28414,7 @@
         <v>1</v>
       </c>
       <c r="R499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -29310,7 +29310,7 @@
         <v>2</v>
       </c>
       <c r="R515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516">
@@ -29646,7 +29646,7 @@
         <v>1</v>
       </c>
       <c r="R521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -30430,7 +30430,7 @@
         <v>2</v>
       </c>
       <c r="R535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536">
@@ -30598,7 +30598,7 @@
         <v>1</v>
       </c>
       <c r="R538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -31158,7 +31158,7 @@
         <v>2</v>
       </c>
       <c r="R548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -31382,7 +31382,7 @@
         <v>1</v>
       </c>
       <c r="R552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -31662,7 +31662,7 @@
         <v>2</v>
       </c>
       <c r="R557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558">
@@ -31774,7 +31774,7 @@
         <v>1</v>
       </c>
       <c r="R559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -32110,7 +32110,7 @@
         <v>2</v>
       </c>
       <c r="R565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -32558,7 +32558,7 @@
         <v>2</v>
       </c>
       <c r="R573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -32894,7 +32894,7 @@
         <v>1</v>
       </c>
       <c r="R579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -33566,7 +33566,7 @@
         <v>1</v>
       </c>
       <c r="R591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -33958,7 +33958,7 @@
         <v>2</v>
       </c>
       <c r="R598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599">
@@ -34630,7 +34630,7 @@
         <v>2</v>
       </c>
       <c r="R610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -35582,7 +35582,7 @@
         <v>2</v>
       </c>
       <c r="R627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -35974,7 +35974,7 @@
         <v>2</v>
       </c>
       <c r="R634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -36142,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="R637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -36478,7 +36478,7 @@
         <v>2</v>
       </c>
       <c r="R643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644">
@@ -36646,7 +36646,7 @@
         <v>1</v>
       </c>
       <c r="R646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -37038,7 +37038,7 @@
         <v>2</v>
       </c>
       <c r="R653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -37430,7 +37430,7 @@
         <v>1</v>
       </c>
       <c r="R660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -38942,7 +38942,7 @@
         <v>2</v>
       </c>
       <c r="R687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688">
@@ -39390,7 +39390,7 @@
         <v>1</v>
       </c>
       <c r="R695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -40174,7 +40174,7 @@
         <v>2</v>
       </c>
       <c r="R709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710">
@@ -40454,7 +40454,7 @@
         <v>1</v>
       </c>
       <c r="R714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -41238,7 +41238,7 @@
         <v>2</v>
       </c>
       <c r="R728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729">
@@ -41350,7 +41350,7 @@
         <v>1</v>
       </c>
       <c r="R730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -41854,7 +41854,7 @@
         <v>2</v>
       </c>
       <c r="R739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740">
@@ -42134,7 +42134,7 @@
         <v>1</v>
       </c>
       <c r="R744" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745">
@@ -42638,7 +42638,7 @@
         <v>2</v>
       </c>
       <c r="R753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754">
@@ -43086,7 +43086,7 @@
         <v>1</v>
       </c>
       <c r="R761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762">
@@ -44318,7 +44318,7 @@
         <v>2</v>
       </c>
       <c r="R783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -44430,7 +44430,7 @@
         <v>1</v>
       </c>
       <c r="R785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -44766,7 +44766,7 @@
         <v>2</v>
       </c>
       <c r="R791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792">
@@ -45382,7 +45382,7 @@
         <v>1</v>
       </c>
       <c r="R802" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -45662,7 +45662,7 @@
         <v>2</v>
       </c>
       <c r="R807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -46110,7 +46110,7 @@
         <v>1</v>
       </c>
       <c r="R815" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816">
@@ -46558,7 +46558,7 @@
         <v>1</v>
       </c>
       <c r="R823" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824">
@@ -46950,7 +46950,7 @@
         <v>1</v>
       </c>
       <c r="R830" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831">
@@ -47342,7 +47342,7 @@
         <v>1</v>
       </c>
       <c r="R837" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838">
@@ -47678,7 +47678,7 @@
         <v>1</v>
       </c>
       <c r="R843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -48014,7 +48014,7 @@
         <v>2</v>
       </c>
       <c r="R849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850">
@@ -48798,7 +48798,7 @@
         <v>1</v>
       </c>
       <c r="R863" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864">
@@ -49190,7 +49190,7 @@
         <v>2</v>
       </c>
       <c r="R870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871">
@@ -49638,7 +49638,7 @@
         <v>1</v>
       </c>
       <c r="R878" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879">
@@ -50590,7 +50590,7 @@
         <v>2</v>
       </c>
       <c r="R895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896">
@@ -51262,7 +51262,7 @@
         <v>1</v>
       </c>
       <c r="R907" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908">
@@ -51654,7 +51654,7 @@
         <v>2</v>
       </c>
       <c r="R914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915">
@@ -51878,7 +51878,7 @@
         <v>1</v>
       </c>
       <c r="R918" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919">
@@ -52158,7 +52158,7 @@
         <v>2</v>
       </c>
       <c r="R923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -52326,7 +52326,7 @@
         <v>1</v>
       </c>
       <c r="R926" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927">
@@ -52830,7 +52830,7 @@
         <v>2</v>
       </c>
       <c r="R935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936">
@@ -52886,7 +52886,7 @@
         <v>1</v>
       </c>
       <c r="R936" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -53334,7 +53334,7 @@
         <v>2</v>
       </c>
       <c r="R944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -53950,7 +53950,7 @@
         <v>1</v>
       </c>
       <c r="R955" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956">
@@ -54510,7 +54510,7 @@
         <v>1</v>
       </c>
       <c r="R965" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966">
@@ -55126,7 +55126,7 @@
         <v>2</v>
       </c>
       <c r="R976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977">
@@ -55630,7 +55630,7 @@
         <v>1</v>
       </c>
       <c r="R985" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986">
@@ -56134,7 +56134,7 @@
         <v>2</v>
       </c>
       <c r="R994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995">
@@ -56526,7 +56526,7 @@
         <v>1</v>
       </c>
       <c r="R1001" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002">
@@ -56862,7 +56862,7 @@
         <v>2</v>
       </c>
       <c r="R1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008">
@@ -57030,7 +57030,7 @@
         <v>1</v>
       </c>
       <c r="R1010" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -57478,7 +57478,7 @@
         <v>2</v>
       </c>
       <c r="R1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -58598,7 +58598,7 @@
         <v>1</v>
       </c>
       <c r="R1038" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039">
@@ -58710,7 +58710,7 @@
         <v>2</v>
       </c>
       <c r="R1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -59326,7 +59326,7 @@
         <v>2</v>
       </c>
       <c r="R1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052">
@@ -59662,7 +59662,7 @@
         <v>1</v>
       </c>
       <c r="R1057" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058">
@@ -60502,7 +60502,7 @@
         <v>1</v>
       </c>
       <c r="R1072" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073">
@@ -61286,7 +61286,7 @@
         <v>2</v>
       </c>
       <c r="R1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -61958,7 +61958,7 @@
         <v>2</v>
       </c>
       <c r="R1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099">
@@ -62238,7 +62238,7 @@
         <v>1</v>
       </c>
       <c r="R1103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104">
@@ -62798,7 +62798,7 @@
         <v>2</v>
       </c>
       <c r="R1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -63134,7 +63134,7 @@
         <v>1</v>
       </c>
       <c r="R1119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -63470,7 +63470,7 @@
         <v>2</v>
       </c>
       <c r="R1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126">
@@ -64422,7 +64422,7 @@
         <v>1</v>
       </c>
       <c r="R1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143">
@@ -64646,7 +64646,7 @@
         <v>2</v>
       </c>
       <c r="R1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147">
@@ -64982,7 +64982,7 @@
         <v>1</v>
       </c>
       <c r="R1152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153">
@@ -65206,7 +65206,7 @@
         <v>2</v>
       </c>
       <c r="R1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157">
@@ -65934,7 +65934,7 @@
         <v>1</v>
       </c>
       <c r="R1169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170">
@@ -66046,7 +66046,7 @@
         <v>2</v>
       </c>
       <c r="R1171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172">
@@ -66438,7 +66438,7 @@
         <v>2</v>
       </c>
       <c r="R1178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179">
@@ -66830,7 +66830,7 @@
         <v>1</v>
       </c>
       <c r="R1185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186">
@@ -67390,7 +67390,7 @@
         <v>2</v>
       </c>
       <c r="R1195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196">
@@ -67446,7 +67446,7 @@
         <v>1</v>
       </c>
       <c r="R1196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197">
@@ -68454,7 +68454,7 @@
         <v>1</v>
       </c>
       <c r="R1214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215">
@@ -68846,7 +68846,7 @@
         <v>2</v>
       </c>
       <c r="R1221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1222">
@@ -69182,7 +69182,7 @@
         <v>1</v>
       </c>
       <c r="R1227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228">
@@ -69574,7 +69574,7 @@
         <v>2</v>
       </c>
       <c r="R1234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235">
@@ -70022,7 +70022,7 @@
         <v>1</v>
       </c>
       <c r="R1242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243">
@@ -70190,7 +70190,7 @@
         <v>2</v>
       </c>
       <c r="R1245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1246">
@@ -71030,7 +71030,7 @@
         <v>2</v>
       </c>
       <c r="R1260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1261">
@@ -71702,7 +71702,7 @@
         <v>1</v>
       </c>
       <c r="R1272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273">
@@ -72878,7 +72878,7 @@
         <v>2</v>
       </c>
       <c r="R1293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -73158,7 +73158,7 @@
         <v>1</v>
       </c>
       <c r="R1298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299">
@@ -74166,7 +74166,7 @@
         <v>1</v>
       </c>
       <c r="R1316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317">
@@ -75006,7 +75006,7 @@
         <v>2</v>
       </c>
       <c r="R1331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1332">
@@ -75286,7 +75286,7 @@
         <v>1</v>
       </c>
       <c r="R1336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337">
@@ -75622,7 +75622,7 @@
         <v>2</v>
       </c>
       <c r="R1342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1343">
@@ -76294,7 +76294,7 @@
         <v>2</v>
       </c>
       <c r="R1354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -76630,7 +76630,7 @@
         <v>1</v>
       </c>
       <c r="R1360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1361">
@@ -77582,7 +77582,7 @@
         <v>2</v>
       </c>
       <c r="R1377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1378">
@@ -78254,7 +78254,7 @@
         <v>1</v>
       </c>
       <c r="R1389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1390">
@@ -78926,7 +78926,7 @@
         <v>2</v>
       </c>
       <c r="R1401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1402">
@@ -79038,7 +79038,7 @@
         <v>1</v>
       </c>
       <c r="R1403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1404">
@@ -79710,7 +79710,7 @@
         <v>1</v>
       </c>
       <c r="R1415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -79934,7 +79934,7 @@
         <v>2</v>
       </c>
       <c r="R1419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1420">
@@ -80438,7 +80438,7 @@
         <v>1</v>
       </c>
       <c r="R1428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -80774,7 +80774,7 @@
         <v>2</v>
       </c>
       <c r="R1434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -80942,7 +80942,7 @@
         <v>1</v>
       </c>
       <c r="R1437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1438">
@@ -82174,7 +82174,7 @@
         <v>1</v>
       </c>
       <c r="R1459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1460">
@@ -82734,7 +82734,7 @@
         <v>2</v>
       </c>
       <c r="R1469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1470">
@@ -83070,7 +83070,7 @@
         <v>1</v>
       </c>
       <c r="R1475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1476">
@@ -83688,6 +83688,114 @@
       <c r="R1486" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>691.2000122070312</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>660.4000244140625</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>684.5</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>684.5</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>27404964</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>679.5999755859375</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>697.5</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>671.3499755859375</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>693.5499877929688</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>693.5499877929688</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>33098522</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDALCO.NS.xlsx
+++ b/stock_historical_data/1wk/HINDALCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1488"/>
+  <dimension ref="A1:R1499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="R80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -5566,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="R91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="R94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -6014,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="R99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -6966,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="R116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -7638,7 +7638,7 @@
         <v>2</v>
       </c>
       <c r="R128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="R136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="R147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -9262,7 +9262,7 @@
         <v>2</v>
       </c>
       <c r="R157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -9430,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="R160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -9766,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="R166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -10214,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="R174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -10718,7 +10718,7 @@
         <v>2</v>
       </c>
       <c r="R183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -11502,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="R197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="R208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -12678,7 +12678,7 @@
         <v>2</v>
       </c>
       <c r="R218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -13126,7 +13126,7 @@
         <v>1</v>
       </c>
       <c r="R226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -13966,7 +13966,7 @@
         <v>2</v>
       </c>
       <c r="R241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -14470,7 +14470,7 @@
         <v>1</v>
       </c>
       <c r="R250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -14638,7 +14638,7 @@
         <v>2</v>
       </c>
       <c r="R253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -15142,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="R262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -15366,7 +15366,7 @@
         <v>2</v>
       </c>
       <c r="R266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -15870,7 +15870,7 @@
         <v>2</v>
       </c>
       <c r="R275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -16654,7 +16654,7 @@
         <v>2</v>
       </c>
       <c r="R289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="R307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -18278,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="R318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -18894,7 +18894,7 @@
         <v>2</v>
       </c>
       <c r="R329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -19566,7 +19566,7 @@
         <v>2</v>
       </c>
       <c r="R341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -19734,7 +19734,7 @@
         <v>1</v>
       </c>
       <c r="R344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -20182,7 +20182,7 @@
         <v>1</v>
       </c>
       <c r="R352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -20854,7 +20854,7 @@
         <v>1</v>
       </c>
       <c r="R364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -21974,7 +21974,7 @@
         <v>1</v>
       </c>
       <c r="R384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -23430,7 +23430,7 @@
         <v>1</v>
       </c>
       <c r="R410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -24550,7 +24550,7 @@
         <v>1</v>
       </c>
       <c r="R430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -25054,7 +25054,7 @@
         <v>2</v>
       </c>
       <c r="R439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -25110,7 +25110,7 @@
         <v>1</v>
       </c>
       <c r="R440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -25838,7 +25838,7 @@
         <v>2</v>
       </c>
       <c r="R453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -27238,7 +27238,7 @@
         <v>2</v>
       </c>
       <c r="R478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -27350,7 +27350,7 @@
         <v>1</v>
       </c>
       <c r="R480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -27798,7 +27798,7 @@
         <v>2</v>
       </c>
       <c r="R488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -28414,7 +28414,7 @@
         <v>1</v>
       </c>
       <c r="R499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -29310,7 +29310,7 @@
         <v>2</v>
       </c>
       <c r="R515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -29646,7 +29646,7 @@
         <v>1</v>
       </c>
       <c r="R521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -30430,7 +30430,7 @@
         <v>2</v>
       </c>
       <c r="R535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -30598,7 +30598,7 @@
         <v>1</v>
       </c>
       <c r="R538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -31158,7 +31158,7 @@
         <v>2</v>
       </c>
       <c r="R548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -31382,7 +31382,7 @@
         <v>1</v>
       </c>
       <c r="R552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -31662,7 +31662,7 @@
         <v>2</v>
       </c>
       <c r="R557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -31774,7 +31774,7 @@
         <v>1</v>
       </c>
       <c r="R559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -32110,7 +32110,7 @@
         <v>2</v>
       </c>
       <c r="R565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -32558,7 +32558,7 @@
         <v>2</v>
       </c>
       <c r="R573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -32894,7 +32894,7 @@
         <v>1</v>
       </c>
       <c r="R579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -33566,7 +33566,7 @@
         <v>1</v>
       </c>
       <c r="R591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -33958,7 +33958,7 @@
         <v>2</v>
       </c>
       <c r="R598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -34630,7 +34630,7 @@
         <v>2</v>
       </c>
       <c r="R610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -35582,7 +35582,7 @@
         <v>2</v>
       </c>
       <c r="R627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -35974,7 +35974,7 @@
         <v>2</v>
       </c>
       <c r="R634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -36142,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="R637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -36478,7 +36478,7 @@
         <v>2</v>
       </c>
       <c r="R643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -36646,7 +36646,7 @@
         <v>1</v>
       </c>
       <c r="R646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -37038,7 +37038,7 @@
         <v>2</v>
       </c>
       <c r="R653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -37430,7 +37430,7 @@
         <v>1</v>
       </c>
       <c r="R660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -38942,7 +38942,7 @@
         <v>2</v>
       </c>
       <c r="R687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -39390,7 +39390,7 @@
         <v>1</v>
       </c>
       <c r="R695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -40174,7 +40174,7 @@
         <v>2</v>
       </c>
       <c r="R709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -40454,7 +40454,7 @@
         <v>1</v>
       </c>
       <c r="R714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -41238,7 +41238,7 @@
         <v>2</v>
       </c>
       <c r="R728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
@@ -41350,7 +41350,7 @@
         <v>1</v>
       </c>
       <c r="R730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
@@ -41854,7 +41854,7 @@
         <v>2</v>
       </c>
       <c r="R739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740">
@@ -42134,7 +42134,7 @@
         <v>1</v>
       </c>
       <c r="R744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -42638,7 +42638,7 @@
         <v>2</v>
       </c>
       <c r="R753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -43086,7 +43086,7 @@
         <v>1</v>
       </c>
       <c r="R761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -44318,7 +44318,7 @@
         <v>2</v>
       </c>
       <c r="R783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -44430,7 +44430,7 @@
         <v>1</v>
       </c>
       <c r="R785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -44766,7 +44766,7 @@
         <v>2</v>
       </c>
       <c r="R791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -45382,7 +45382,7 @@
         <v>1</v>
       </c>
       <c r="R802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -45662,7 +45662,7 @@
         <v>2</v>
       </c>
       <c r="R807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -46110,7 +46110,7 @@
         <v>1</v>
       </c>
       <c r="R815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816">
@@ -46558,7 +46558,7 @@
         <v>1</v>
       </c>
       <c r="R823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824">
@@ -46950,7 +46950,7 @@
         <v>1</v>
       </c>
       <c r="R830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831">
@@ -47342,7 +47342,7 @@
         <v>1</v>
       </c>
       <c r="R837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838">
@@ -47678,7 +47678,7 @@
         <v>1</v>
       </c>
       <c r="R843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844">
@@ -48014,7 +48014,7 @@
         <v>2</v>
       </c>
       <c r="R849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850">
@@ -48798,7 +48798,7 @@
         <v>1</v>
       </c>
       <c r="R863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -49190,7 +49190,7 @@
         <v>2</v>
       </c>
       <c r="R870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871">
@@ -49638,7 +49638,7 @@
         <v>1</v>
       </c>
       <c r="R878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879">
@@ -50590,7 +50590,7 @@
         <v>2</v>
       </c>
       <c r="R895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -51262,7 +51262,7 @@
         <v>1</v>
       </c>
       <c r="R907" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908">
@@ -51654,7 +51654,7 @@
         <v>2</v>
       </c>
       <c r="R914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915">
@@ -51878,7 +51878,7 @@
         <v>1</v>
       </c>
       <c r="R918" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919">
@@ -52158,7 +52158,7 @@
         <v>2</v>
       </c>
       <c r="R923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924">
@@ -52326,7 +52326,7 @@
         <v>1</v>
       </c>
       <c r="R926" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927">
@@ -52830,7 +52830,7 @@
         <v>2</v>
       </c>
       <c r="R935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936">
@@ -52886,7 +52886,7 @@
         <v>1</v>
       </c>
       <c r="R936" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937">
@@ -53334,7 +53334,7 @@
         <v>2</v>
       </c>
       <c r="R944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945">
@@ -53950,7 +53950,7 @@
         <v>1</v>
       </c>
       <c r="R955" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956">
@@ -54510,7 +54510,7 @@
         <v>1</v>
       </c>
       <c r="R965" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -55126,7 +55126,7 @@
         <v>2</v>
       </c>
       <c r="R976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977">
@@ -55630,7 +55630,7 @@
         <v>1</v>
       </c>
       <c r="R985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986">
@@ -56134,7 +56134,7 @@
         <v>2</v>
       </c>
       <c r="R994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995">
@@ -56526,7 +56526,7 @@
         <v>1</v>
       </c>
       <c r="R1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -56862,7 +56862,7 @@
         <v>2</v>
       </c>
       <c r="R1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008">
@@ -57030,7 +57030,7 @@
         <v>1</v>
       </c>
       <c r="R1010" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011">
@@ -57478,7 +57478,7 @@
         <v>2</v>
       </c>
       <c r="R1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019">
@@ -58598,7 +58598,7 @@
         <v>1</v>
       </c>
       <c r="R1038" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039">
@@ -58710,7 +58710,7 @@
         <v>2</v>
       </c>
       <c r="R1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041">
@@ -59326,7 +59326,7 @@
         <v>2</v>
       </c>
       <c r="R1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052">
@@ -59662,7 +59662,7 @@
         <v>1</v>
       </c>
       <c r="R1057" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058">
@@ -60502,7 +60502,7 @@
         <v>1</v>
       </c>
       <c r="R1072" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073">
@@ -61286,7 +61286,7 @@
         <v>2</v>
       </c>
       <c r="R1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087">
@@ -61958,7 +61958,7 @@
         <v>2</v>
       </c>
       <c r="R1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099">
@@ -62238,7 +62238,7 @@
         <v>1</v>
       </c>
       <c r="R1103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104">
@@ -62798,7 +62798,7 @@
         <v>2</v>
       </c>
       <c r="R1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114">
@@ -63134,7 +63134,7 @@
         <v>1</v>
       </c>
       <c r="R1119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120">
@@ -63470,7 +63470,7 @@
         <v>2</v>
       </c>
       <c r="R1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126">
@@ -64422,7 +64422,7 @@
         <v>1</v>
       </c>
       <c r="R1142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143">
@@ -64646,7 +64646,7 @@
         <v>2</v>
       </c>
       <c r="R1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147">
@@ -64982,7 +64982,7 @@
         <v>1</v>
       </c>
       <c r="R1152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153">
@@ -65206,7 +65206,7 @@
         <v>2</v>
       </c>
       <c r="R1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157">
@@ -65934,7 +65934,7 @@
         <v>1</v>
       </c>
       <c r="R1169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170">
@@ -66046,7 +66046,7 @@
         <v>2</v>
       </c>
       <c r="R1171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172">
@@ -66438,7 +66438,7 @@
         <v>2</v>
       </c>
       <c r="R1178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179">
@@ -66830,7 +66830,7 @@
         <v>1</v>
       </c>
       <c r="R1185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186">
@@ -67390,7 +67390,7 @@
         <v>2</v>
       </c>
       <c r="R1195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196">
@@ -67446,7 +67446,7 @@
         <v>1</v>
       </c>
       <c r="R1196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197">
@@ -68454,7 +68454,7 @@
         <v>1</v>
       </c>
       <c r="R1214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215">
@@ -68846,7 +68846,7 @@
         <v>2</v>
       </c>
       <c r="R1221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222">
@@ -69182,7 +69182,7 @@
         <v>1</v>
       </c>
       <c r="R1227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228">
@@ -69574,7 +69574,7 @@
         <v>2</v>
       </c>
       <c r="R1234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235">
@@ -70022,7 +70022,7 @@
         <v>1</v>
       </c>
       <c r="R1242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243">
@@ -70190,7 +70190,7 @@
         <v>2</v>
       </c>
       <c r="R1245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246">
@@ -71030,7 +71030,7 @@
         <v>2</v>
       </c>
       <c r="R1260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261">
@@ -71702,7 +71702,7 @@
         <v>1</v>
       </c>
       <c r="R1272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273">
@@ -72878,7 +72878,7 @@
         <v>2</v>
       </c>
       <c r="R1293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294">
@@ -73158,7 +73158,7 @@
         <v>1</v>
       </c>
       <c r="R1298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299">
@@ -74166,7 +74166,7 @@
         <v>1</v>
       </c>
       <c r="R1316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317">
@@ -75006,7 +75006,7 @@
         <v>2</v>
       </c>
       <c r="R1331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332">
@@ -75286,7 +75286,7 @@
         <v>1</v>
       </c>
       <c r="R1336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337">
@@ -75622,7 +75622,7 @@
         <v>2</v>
       </c>
       <c r="R1342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343">
@@ -76294,7 +76294,7 @@
         <v>2</v>
       </c>
       <c r="R1354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355">
@@ -76630,7 +76630,7 @@
         <v>1</v>
       </c>
       <c r="R1360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1361">
@@ -77582,7 +77582,7 @@
         <v>2</v>
       </c>
       <c r="R1377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1378">
@@ -78254,7 +78254,7 @@
         <v>1</v>
       </c>
       <c r="R1389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1390">
@@ -78926,7 +78926,7 @@
         <v>2</v>
       </c>
       <c r="R1401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1402">
@@ -79038,7 +79038,7 @@
         <v>1</v>
       </c>
       <c r="R1403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1404">
@@ -79710,7 +79710,7 @@
         <v>1</v>
       </c>
       <c r="R1415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1416">
@@ -79934,7 +79934,7 @@
         <v>2</v>
       </c>
       <c r="R1419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1420">
@@ -80438,7 +80438,7 @@
         <v>1</v>
       </c>
       <c r="R1428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1429">
@@ -80774,7 +80774,7 @@
         <v>2</v>
       </c>
       <c r="R1434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1435">
@@ -80942,7 +80942,7 @@
         <v>1</v>
       </c>
       <c r="R1437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1438">
@@ -82174,7 +82174,7 @@
         <v>1</v>
       </c>
       <c r="R1459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1460">
@@ -82734,7 +82734,7 @@
         <v>2</v>
       </c>
       <c r="R1469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1470">
@@ -83070,7 +83070,7 @@
         <v>1</v>
       </c>
       <c r="R1475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1476">
@@ -83621,7 +83621,7 @@
         <v>23</v>
       </c>
       <c r="O1485" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P1485" t="n">
         <v>0</v>
@@ -83741,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83795,7 +83797,603 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>699</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>683.4000244140625</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>699.1500244140625</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>695.1649780273438</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>27327302</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>703.6500244140625</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>712.0999755859375</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>685.2999877929688</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>692.0499877929688</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>688.1054077148438</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>24167004</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>692.0499877929688</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>703.1500244140625</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>658.6500244140625</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>663</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>659.2210083007812</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>21467327</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>655</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>667.5999755859375</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>663.7947387695312</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>26406929</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>676.75</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>690.9000244140625</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>646.5499877929688</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>648.0499877929688</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>644.356201171875</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>36847249</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>628.0499877929688</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>633.8499755859375</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>608</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>622.9000244140625</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>619.3495483398438</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>34380122</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>619</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>642</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>611.5999755859375</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>634.1500244140625</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>634.1500244140625</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>25592841</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>696.5999755859375</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>685.0999755859375</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>685.0999755859375</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>41584996</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>694.4000244140625</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>712.9500122070312</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>689.5</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>701.3499755859375</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>701.3499755859375</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>34715868</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>706.7000122070312</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>706.7000122070312</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>661.25</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>667.0999755859375</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>667.0999755859375</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>26521523</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>664</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>686.4000244140625</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>645.4000244140625</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>673.25</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>673.25</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>26844184</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDALCO.NS.xlsx
+++ b/stock_historical_data/1wk/HINDALCO.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1499"/>
+  <dimension ref="A1:R1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -83853,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83907,7 +83909,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83961,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84015,7 +84021,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84069,7 +84077,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84123,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84177,7 +84189,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84231,7 +84245,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84285,7 +84301,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84339,7 +84357,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84393,7 +84413,1465 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>680.0999755859375</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>698.7999877929688</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>668.2000122070312</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>694.4000244140625</v>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="n">
+        <v>25947512</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>695.5</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>757.7000122070312</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>687.9500122070312</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>747.1500244140625</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>51045532</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>750</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>772.6500244140625</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>740.0499877929688</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>747.9000244140625</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>23242389</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>753</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>753</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>708</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>747.3499755859375</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>24128570</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>746</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>756.4500122070312</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>720.6500244140625</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>753.5</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>20493431</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>760</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>765.4500122070312</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>666.75</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>678.75</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>34178265</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>681</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>698.7999877929688</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>676.4500122070312</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>690.9000244140625</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>15117252</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>689</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>714.25</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>646.2999877929688</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>650.4500122070312</v>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="n">
+        <v>50235371</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>647.4500122070312</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>673.5</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>622.5499877929688</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>627.3499755859375</v>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="n">
+        <v>31747857</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>641.9000244140625</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>663.0999755859375</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>634.2999877929688</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>652.0999755859375</v>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="n">
+        <v>30131569</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>660.0999755859375</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>670.25</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>647.5999755859375</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>656.2000122070312</v>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="n">
+        <v>20374307</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>656.2000122070312</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>676.5</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>653.0499877929688</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>670.1500244140625</v>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="n">
+        <v>16145839</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>666.9500122070312</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>679.7999877929688</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>648</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>662.0999755859375</v>
+      </c>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="n">
+        <v>23233166</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>661.2999877929688</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>666.5999755859375</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>614.0999755859375</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>622.6500244140625</v>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="n">
+        <v>22335954</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>625.5499877929688</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>638.0999755859375</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>615.7000122070312</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>617.4000244140625</v>
+      </c>
+      <c r="F1514" t="inlineStr"/>
+      <c r="G1514" t="n">
+        <v>15619504</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>615.4000244140625</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>620.2999877929688</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>587.5</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>591.1500244140625</v>
+      </c>
+      <c r="F1515" t="inlineStr"/>
+      <c r="G1515" t="n">
+        <v>35864496</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>592.5999755859375</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>596.8499755859375</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>571.5999755859375</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>574.4500122070312</v>
+      </c>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="n">
+        <v>38868258</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>571.5999755859375</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>619</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>562</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>617</v>
+      </c>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="n">
+        <v>31959650</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>617.0499877929688</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>628.3499755859375</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>599.9000244140625</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>606.9000244140625</v>
+      </c>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="n">
+        <v>22386350</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>600.0499877929688</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>601.8499755859375</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>568.2999877929688</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>586.4500122070312</v>
+      </c>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="n">
+        <v>23884660</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>575</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>610.5999755859375</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>557.5999755859375</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>607.4000244140625</v>
+      </c>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="n">
+        <v>25721788</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>605</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>616</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>586.3499755859375</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>606.2000122070312</v>
+      </c>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="n">
+        <v>28392503</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>606.2000122070312</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>656.2000122070312</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>589.6500244140625</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>653.5499877929688</v>
+      </c>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="n">
+        <v>27924051</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>642</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>647.9000244140625</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>617.0999755859375</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>634.3499755859375</v>
+      </c>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="n">
+        <v>36485596</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>634.4500122070312</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>694.5999755859375</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>620.7000122070312</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>691.3499755859375</v>
+      </c>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="n">
+        <v>36812147</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>689.7999877929688</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>709.2999877929688</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>673.25</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>677.3499755859375</v>
+      </c>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="n">
+        <v>26066926</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>678.25</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>715</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>677.8499755859375</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>695.3499755859375</v>
+      </c>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="n">
+        <v>21761659</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>704.8499755859375</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>679.2999877929688</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>682.4500122070312</v>
+      </c>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="n">
+        <v>21859810</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
